--- a/mbs-perturbation/nano/welm/smote/nano_welm_rbf_smote_results.xlsx
+++ b/mbs-perturbation/nano/welm/smote/nano_welm_rbf_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6533957845433255</v>
+        <v>0.595360824742268</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3066037735849056</v>
+        <v>0.1808510638297872</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4676258992805755</v>
+        <v>0.3022222222222222</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7895348837209303</v>
+        <v>0.7561835106382979</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6159250585480094</v>
+        <v>0.6253229974160207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2322274881516588</v>
+        <v>0.2324324324324324</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3740458015267176</v>
+        <v>0.3722943722943723</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7742452167807617</v>
+        <v>0.7632057800374631</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6408450704225352</v>
+        <v>0.6589147286821705</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2536585365853659</v>
+        <v>0.3048128342245989</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4046692607003891</v>
+        <v>0.4634146341463414</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6154839421697386</v>
+        <v>0.757072192513369</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6431924882629108</v>
+        <v>0.6356589147286822</v>
       </c>
       <c r="C5" t="n">
-        <v>0.280952380952381</v>
+        <v>0.284263959390863</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4370370370370371</v>
+        <v>0.4426877470355732</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7612103174603174</v>
+        <v>0.7871359871760619</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6103286384976526</v>
+        <v>0.5943152454780362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2850877192982456</v>
+        <v>0.2559241706161137</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4391891891891892</v>
+        <v>0.4075471698113207</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7971269714690767</v>
+        <v>0.777951314088755</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6327374080548867</v>
+        <v>0.6219145422094355</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2717059797145114</v>
+        <v>0.2516568920987591</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4245134375467817</v>
+        <v>0.397633229101966</v>
       </c>
       <c r="E7" t="n">
-        <v>0.747520266320165</v>
+        <v>0.7683097568907893</v>
       </c>
     </row>
   </sheetData>
